--- a/datasets/Educational Attainment and Rate.xlsx
+++ b/datasets/Educational Attainment and Rate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jematanevar\Documents\New Data Rep\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jematanevar\OneDrive - University of Texas at El Paso\Documents\DataRep 2\New-Data-Rep\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DBD434-398C-4E07-8F7B-2FF2BA45816C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{55DBD434-398C-4E07-8F7B-2FF2BA45816C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D17B8923-7778-428F-AECA-A658FEB8388D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:F1695"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1118,7 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>10581.344000000001</v>
       </c>
       <c r="F2" s="7">
@@ -1138,7 +1138,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>13109.974</v>
       </c>
       <c r="F3" s="7">
@@ -1158,7 +1158,7 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>13965.817999999999</v>
       </c>
       <c r="F4" s="7">
@@ -1178,7 +1178,7 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>1244.864</v>
       </c>
       <c r="F5" s="7">
@@ -1198,7 +1198,7 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>54710.705000000002</v>
       </c>
       <c r="F6" s="7">
@@ -1218,7 +1218,7 @@
       <c r="D7" t="s">
         <v>71</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>29476.788</v>
       </c>
       <c r="F7" s="7">
@@ -1238,7 +1238,7 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>54264.087</v>
       </c>
       <c r="F8" s="7">
@@ -1258,7 +1258,7 @@
       <c r="D9" t="s">
         <v>94</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>39079.074999999997</v>
       </c>
       <c r="F9" s="7">
@@ -1278,7 +1278,7 @@
       <c r="D10" t="s">
         <v>106</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>13398.539999999999</v>
       </c>
       <c r="F10" s="7">
@@ -1298,7 +1298,7 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>21884.281999999999</v>
       </c>
       <c r="F11" s="7">
@@ -1318,7 +1318,7 @@
       <c r="D12" t="s">
         <v>119</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>10495.522999999999</v>
       </c>
       <c r="F12" s="7">
